--- a/Thesis_Data_2.xlsx
+++ b/Thesis_Data_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\GR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622E373F-8A70-407F-BDD2-B505E8C0809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9B79BD-1141-48F3-90BF-4B8319C48164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -715,9 +715,6 @@
     <t>dominos.de</t>
   </si>
   <si>
-    <t>https://www.loveandlemons.com/</t>
-  </si>
-  <si>
     <t>leclercdrive.fr</t>
   </si>
   <si>
@@ -1922,6 +1919,9 @@
   </si>
   <si>
     <t>rakuten.de</t>
+  </si>
+  <si>
+    <t>loveandlemons.com</t>
   </si>
 </sst>
 </file>
@@ -2229,8 +2229,8 @@
   </sheetPr>
   <dimension ref="A1:AA529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="L333" sqref="L333"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2545,7 +2545,7 @@
         <v>26</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>19</v>
@@ -2832,10 +2832,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>19</v>
@@ -2923,7 +2923,7 @@
         <v>26</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>19</v>
@@ -3286,10 +3286,10 @@
         <v>1</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>52</v>
@@ -3497,7 +3497,7 @@
         <v>62</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>52</v>
@@ -4041,7 +4041,7 @@
         <v>81</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>70</v>
@@ -4079,7 +4079,7 @@
         <v>81</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>70</v>
@@ -4269,7 +4269,7 @@
         <v>81</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>70</v>
@@ -4611,7 +4611,7 @@
         <v>99</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>70</v>
@@ -4874,10 +4874,10 @@
         <v>103</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>33</v>
@@ -5067,7 +5067,7 @@
         <v>81</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>33</v>
@@ -5219,7 +5219,7 @@
         <v>118</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>19</v>
@@ -5254,10 +5254,10 @@
         <v>103</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>19</v>
@@ -5368,10 +5368,10 @@
         <v>103</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>123</v>
@@ -5444,10 +5444,10 @@
         <v>103</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>19</v>
@@ -5751,7 +5751,7 @@
         <v>81</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>33</v>
@@ -5786,10 +5786,10 @@
         <v>103</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>19</v>
@@ -5827,7 +5827,7 @@
         <v>26</v>
       </c>
       <c r="M91" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>19</v>
@@ -5903,7 +5903,7 @@
         <v>81</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>139</v>
@@ -5938,10 +5938,10 @@
         <v>137</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M94" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N94" s="2" t="s">
         <v>139</v>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="105" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>15</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="106" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>15</v>
@@ -6587,7 +6587,7 @@
         <v>26</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N111" s="2" t="s">
         <v>70</v>
@@ -6891,7 +6891,7 @@
         <v>81</v>
       </c>
       <c r="M119" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>70</v>
@@ -6929,7 +6929,7 @@
         <v>166</v>
       </c>
       <c r="M120" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N120" s="2" t="s">
         <v>66</v>
@@ -7233,7 +7233,7 @@
         <v>176</v>
       </c>
       <c r="M128" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N128" s="2" t="s">
         <v>42</v>
@@ -7271,7 +7271,7 @@
         <v>26</v>
       </c>
       <c r="M129" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>42</v>
@@ -7347,7 +7347,7 @@
         <v>181</v>
       </c>
       <c r="M131" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N131" s="2" t="s">
         <v>42</v>
@@ -7581,7 +7581,7 @@
         <v>189</v>
       </c>
       <c r="M137" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N137" s="2" t="s">
         <v>183</v>
@@ -7619,7 +7619,7 @@
         <v>191</v>
       </c>
       <c r="M138" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N138" s="2" t="s">
         <v>183</v>
@@ -7885,7 +7885,7 @@
         <v>26</v>
       </c>
       <c r="M145" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N145" s="2" t="s">
         <v>183</v>
@@ -8113,7 +8113,7 @@
         <v>26</v>
       </c>
       <c r="M151" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N151" s="2" t="s">
         <v>52</v>
@@ -8721,7 +8721,7 @@
         <v>26</v>
       </c>
       <c r="M167" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N167" s="2" t="s">
         <v>42</v>
@@ -8797,7 +8797,7 @@
         <v>26</v>
       </c>
       <c r="M169" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N169" s="2" t="s">
         <v>42</v>
@@ -8835,7 +8835,7 @@
         <v>26</v>
       </c>
       <c r="M170" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N170" s="2" t="s">
         <v>70</v>
@@ -8994,8 +8994,8 @@
       </c>
     </row>
     <row r="175" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A175" s="4" t="s">
-        <v>230</v>
+      <c r="A175" s="3" t="s">
+        <v>632</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>15</v>
@@ -9033,7 +9033,7 @@
     </row>
     <row r="176" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>15</v>
@@ -9071,7 +9071,7 @@
     </row>
     <row r="177" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>15</v>
@@ -9109,7 +9109,7 @@
     </row>
     <row r="178" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>15</v>
@@ -9147,7 +9147,7 @@
     </row>
     <row r="179" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>15</v>
@@ -9185,7 +9185,7 @@
     </row>
     <row r="180" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>15</v>
@@ -9223,7 +9223,7 @@
     </row>
     <row r="181" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>15</v>
@@ -9250,10 +9250,10 @@
         <v>207</v>
       </c>
       <c r="L181" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N181" s="2" t="s">
         <v>52</v>
@@ -9261,7 +9261,7 @@
     </row>
     <row r="182" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>15</v>
@@ -9285,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L182" s="2" t="s">
         <v>17</v>
@@ -9294,16 +9294,16 @@
         <v>18</v>
       </c>
       <c r="N182" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="183" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="C183" s="2">
         <v>0</v>
       </c>
@@ -9323,53 +9323,53 @@
         <v>0</v>
       </c>
       <c r="I183" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N183" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="N183" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C184" s="2">
+        <v>1</v>
+      </c>
+      <c r="D184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G184" s="2">
+        <v>0</v>
+      </c>
+      <c r="H184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L184" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C184" s="2">
-        <v>1</v>
-      </c>
-      <c r="D184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G184" s="2">
-        <v>0</v>
-      </c>
-      <c r="H184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I184" s="2" t="s">
+      <c r="M184" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="N184" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="L184" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="M184" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="N184" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="185" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>15</v>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L185" s="2" t="s">
         <v>17</v>
@@ -9402,12 +9402,12 @@
         <v>18</v>
       </c>
       <c r="N185" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="186" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>15</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J186" s="2" t="b">
         <v>1</v>
@@ -9446,53 +9446,53 @@
         <v>18</v>
       </c>
       <c r="N186" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="187" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" s="2">
+        <v>1</v>
+      </c>
+      <c r="D187" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F187" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G187" s="2">
+        <v>0</v>
+      </c>
+      <c r="H187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L187" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C187" s="2">
-        <v>1</v>
-      </c>
-      <c r="D187" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F187" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G187" s="2">
-        <v>0</v>
-      </c>
-      <c r="H187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I187" s="2" t="s">
+      <c r="M187" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="N187" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="L187" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="M187" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="N187" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="188" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -9513,15 +9513,15 @@
         <v>1</v>
       </c>
       <c r="I188" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N188" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="N188" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="189" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>15</v>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L189" s="2" t="s">
         <v>193</v>
@@ -9554,12 +9554,12 @@
         <v>18</v>
       </c>
       <c r="N189" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="190" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>15</v>
@@ -9583,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L190" s="2" t="s">
         <v>17</v>
@@ -9597,7 +9597,7 @@
     </row>
     <row r="191" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>15</v>
@@ -9621,7 +9621,7 @@
         <v>1</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L191" s="2" t="s">
         <v>47</v>
@@ -9635,7 +9635,7 @@
     </row>
     <row r="192" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>15</v>
@@ -9659,21 +9659,21 @@
         <v>1</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L192" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M192" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N192" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="193" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>15</v>
@@ -9697,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L193" s="2" t="s">
         <v>17</v>
@@ -9706,12 +9706,12 @@
         <v>18</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="194" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>15</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L194" s="2" t="s">
         <v>17</v>
@@ -9744,39 +9744,39 @@
         <v>18</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="195" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" s="2">
+        <v>1</v>
+      </c>
+      <c r="D195" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F195" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G195" s="2">
+        <v>0</v>
+      </c>
+      <c r="H195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L195" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C195" s="2">
-        <v>1</v>
-      </c>
-      <c r="D195" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F195" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G195" s="2">
-        <v>0</v>
-      </c>
-      <c r="H195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I195" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="L195" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="M195" s="2" t="s">
         <v>18</v>
@@ -9787,10 +9787,10 @@
     </row>
     <row r="196" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -9811,15 +9811,15 @@
         <v>1</v>
       </c>
       <c r="I196" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N196" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="N196" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="197" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>15</v>
@@ -9843,13 +9843,13 @@
         <v>1</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L197" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M197" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N197" s="2" t="s">
         <v>123</v>
@@ -9857,45 +9857,45 @@
     </row>
     <row r="198" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198" s="2">
+        <v>1</v>
+      </c>
+      <c r="D198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G198" s="2">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L198" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C198" s="2">
-        <v>1</v>
-      </c>
-      <c r="D198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G198" s="2">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I198" s="2" t="s">
+      <c r="M198" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="N198" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="L198" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="M198" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="N198" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>15</v>
@@ -9919,13 +9919,13 @@
         <v>1</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L199" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M199" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N199" s="2" t="s">
         <v>123</v>
@@ -9933,7 +9933,7 @@
     </row>
     <row r="200" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>15</v>
@@ -9957,13 +9957,13 @@
         <v>1</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L200" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M200" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N200" s="2" t="s">
         <v>19</v>
@@ -9971,7 +9971,7 @@
     </row>
     <row r="201" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>15</v>
@@ -9995,10 +9995,10 @@
         <v>1</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M201" s="2" t="s">
         <v>18</v>
@@ -10009,7 +10009,7 @@
     </row>
     <row r="202" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>15</v>
@@ -10033,13 +10033,13 @@
         <v>1</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L202" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M202" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N202" s="2" t="s">
         <v>19</v>
@@ -10047,7 +10047,7 @@
     </row>
     <row r="203" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>15</v>
@@ -10071,7 +10071,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L203" s="2" t="s">
         <v>17</v>
@@ -10085,7 +10085,7 @@
     </row>
     <row r="204" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>15</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L204" s="2" t="s">
         <v>17</v>
@@ -10123,7 +10123,7 @@
     </row>
     <row r="205" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>15</v>
@@ -10147,13 +10147,13 @@
         <v>1</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L205" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M205" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N205" s="2" t="s">
         <v>19</v>
@@ -10161,7 +10161,7 @@
     </row>
     <row r="206" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>15</v>
@@ -10185,7 +10185,7 @@
         <v>1</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L206" s="2" t="s">
         <v>17</v>
@@ -10199,7 +10199,7 @@
     </row>
     <row r="207" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>15</v>
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L207" s="2" t="s">
         <v>17</v>
@@ -10237,7 +10237,7 @@
     </row>
     <row r="208" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>15</v>
@@ -10261,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L208" s="2" t="s">
         <v>17</v>
@@ -10275,7 +10275,7 @@
     </row>
     <row r="209" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>15</v>
@@ -10299,13 +10299,13 @@
         <v>1</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L209" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M209" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N209" s="2" t="s">
         <v>19</v>
@@ -10313,34 +10313,34 @@
     </row>
     <row r="210" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" s="2">
+        <v>1</v>
+      </c>
+      <c r="D210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G210" s="2">
+        <v>0</v>
+      </c>
+      <c r="H210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="L210" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C210" s="2">
-        <v>1</v>
-      </c>
-      <c r="D210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G210" s="2">
-        <v>0</v>
-      </c>
-      <c r="H210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I210" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="L210" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="M210" s="2" t="s">
         <v>18</v>
@@ -10351,7 +10351,7 @@
     </row>
     <row r="211" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>15</v>
@@ -10375,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L211" s="2" t="s">
         <v>17</v>
@@ -10389,7 +10389,7 @@
     </row>
     <row r="212" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>15</v>
@@ -10413,13 +10413,13 @@
         <v>1</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L212" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M212" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N212" s="2" t="s">
         <v>19</v>
@@ -10427,7 +10427,7 @@
     </row>
     <row r="213" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>15</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L213" s="2" t="s">
         <v>17</v>
@@ -10465,37 +10465,37 @@
     </row>
     <row r="214" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214" s="2">
+        <v>1</v>
+      </c>
+      <c r="D214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G214" s="2">
+        <v>0</v>
+      </c>
+      <c r="H214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="L214" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C214" s="2">
-        <v>1</v>
-      </c>
-      <c r="D214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G214" s="2">
-        <v>0</v>
-      </c>
-      <c r="H214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I214" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="L214" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="M214" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N214" s="2" t="s">
         <v>70</v>
@@ -10503,7 +10503,7 @@
     </row>
     <row r="215" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>15</v>
@@ -10527,7 +10527,7 @@
         <v>1</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L215" s="2" t="s">
         <v>179</v>
@@ -10541,7 +10541,7 @@
     </row>
     <row r="216" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>15</v>
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L216" s="2" t="s">
         <v>17</v>
@@ -10579,7 +10579,7 @@
     </row>
     <row r="217" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>15</v>
@@ -10603,7 +10603,7 @@
         <v>1</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L217" s="2" t="s">
         <v>179</v>
@@ -10617,7 +10617,7 @@
     </row>
     <row r="218" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>15</v>
@@ -10641,7 +10641,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L218" s="2" t="s">
         <v>17</v>
@@ -10655,7 +10655,7 @@
     </row>
     <row r="219" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>15</v>
@@ -10679,7 +10679,7 @@
         <v>1</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L219" s="2" t="s">
         <v>17</v>
@@ -10693,7 +10693,7 @@
     </row>
     <row r="220" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>15</v>
@@ -10717,7 +10717,7 @@
         <v>1</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L220" s="2" t="s">
         <v>17</v>
@@ -10731,7 +10731,7 @@
     </row>
     <row r="221" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>15</v>
@@ -10755,7 +10755,7 @@
         <v>1</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L221" s="2" t="s">
         <v>17</v>
@@ -10769,7 +10769,7 @@
     </row>
     <row r="222" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>15</v>
@@ -10793,13 +10793,13 @@
         <v>1</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L222" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M222" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N222" s="2" t="s">
         <v>52</v>
@@ -10807,7 +10807,7 @@
     </row>
     <row r="223" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>15</v>
@@ -10831,7 +10831,7 @@
         <v>1</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L223" s="2" t="s">
         <v>50</v>
@@ -10845,7 +10845,7 @@
     </row>
     <row r="224" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>15</v>
@@ -10869,13 +10869,13 @@
         <v>1</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L224" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M224" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N224" s="2" t="s">
         <v>33</v>
@@ -10883,7 +10883,7 @@
     </row>
     <row r="225" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>15</v>
@@ -10907,7 +10907,7 @@
         <v>1</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L225" s="2" t="s">
         <v>47</v>
@@ -10921,7 +10921,7 @@
     </row>
     <row r="226" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>15</v>
@@ -10945,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L226" s="2" t="s">
         <v>47</v>
@@ -10959,7 +10959,7 @@
     </row>
     <row r="227" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>15</v>
@@ -10983,13 +10983,13 @@
         <v>0</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L227" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M227" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N227" s="2" t="s">
         <v>52</v>
@@ -10997,7 +10997,7 @@
     </row>
     <row r="228" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>15</v>
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L228" s="2" t="s">
         <v>86</v>
@@ -11035,7 +11035,7 @@
     </row>
     <row r="229" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>15</v>
@@ -11059,7 +11059,7 @@
         <v>1</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L229" s="2" t="s">
         <v>17</v>
@@ -11073,7 +11073,7 @@
     </row>
     <row r="230" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>15</v>
@@ -11097,13 +11097,13 @@
         <v>0</v>
       </c>
       <c r="I230" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L230" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="L230" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="M230" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N230" s="2" t="s">
         <v>139</v>
@@ -11111,7 +11111,7 @@
     </row>
     <row r="231" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>15</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L231" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M231" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N231" s="2" t="s">
         <v>139</v>
@@ -11149,7 +11149,7 @@
     </row>
     <row r="232" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>15</v>
@@ -11173,7 +11173,7 @@
         <v>0</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L232" s="2" t="s">
         <v>17</v>
@@ -11187,7 +11187,7 @@
     </row>
     <row r="233" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>15</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L233" s="2" t="s">
         <v>17</v>
@@ -11225,7 +11225,7 @@
     </row>
     <row r="234" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>15</v>
@@ -11249,7 +11249,7 @@
         <v>0</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L234" s="2" t="s">
         <v>50</v>
@@ -11263,34 +11263,34 @@
     </row>
     <row r="235" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C235" s="2">
+        <v>1</v>
+      </c>
+      <c r="D235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G235" s="2">
+        <v>0</v>
+      </c>
+      <c r="H235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L235" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C235" s="2">
-        <v>1</v>
-      </c>
-      <c r="D235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G235" s="2">
-        <v>0</v>
-      </c>
-      <c r="H235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I235" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="L235" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="M235" s="2" t="s">
         <v>18</v>
@@ -11301,7 +11301,7 @@
     </row>
     <row r="236" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>15</v>
@@ -11325,13 +11325,13 @@
         <v>0</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L236" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M236" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N236" s="2" t="s">
         <v>139</v>
@@ -11339,7 +11339,7 @@
     </row>
     <row r="237" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>15</v>
@@ -11363,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L237" s="2" t="s">
         <v>17</v>
@@ -11377,7 +11377,7 @@
     </row>
     <row r="238" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>15</v>
@@ -11401,13 +11401,13 @@
         <v>1</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L238" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M238" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N238" s="2" t="s">
         <v>139</v>
@@ -11415,37 +11415,37 @@
     </row>
     <row r="239" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C239" s="2">
+        <v>1</v>
+      </c>
+      <c r="D239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G239" s="2">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I239" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L239" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C239" s="2">
-        <v>1</v>
-      </c>
-      <c r="D239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G239" s="2">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I239" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="L239" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="M239" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N239" s="2" t="s">
         <v>139</v>
@@ -11453,7 +11453,7 @@
     </row>
     <row r="240" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>15</v>
@@ -11477,7 +11477,7 @@
         <v>0</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L240" s="2" t="s">
         <v>86</v>
@@ -11491,7 +11491,7 @@
     </row>
     <row r="241" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>15</v>
@@ -11515,13 +11515,13 @@
         <v>1</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L241" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M241" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N241" s="2" t="s">
         <v>139</v>
@@ -11529,7 +11529,7 @@
     </row>
     <row r="242" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>15</v>
@@ -11553,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L242" s="2" t="s">
         <v>17</v>
@@ -11567,10 +11567,10 @@
     </row>
     <row r="243" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C243" s="2">
         <v>0</v>
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N243" s="2" t="s">
         <v>42</v>
@@ -11599,10 +11599,10 @@
     </row>
     <row r="244" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C244" s="2">
         <v>0</v>
@@ -11623,7 +11623,7 @@
         <v>0</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N244" s="2" t="s">
         <v>33</v>
@@ -11631,7 +11631,7 @@
     </row>
     <row r="245" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>15</v>
@@ -11655,13 +11655,13 @@
         <v>1</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L245" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M245" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N245" s="2" t="s">
         <v>48</v>
@@ -11669,7 +11669,7 @@
     </row>
     <row r="246" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>15</v>
@@ -11693,7 +11693,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L246" s="2" t="s">
         <v>17</v>
@@ -11707,7 +11707,7 @@
     </row>
     <row r="247" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>15</v>
@@ -11731,7 +11731,7 @@
         <v>1</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L247" s="2" t="s">
         <v>17</v>
@@ -11745,7 +11745,7 @@
     </row>
     <row r="248" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>15</v>
@@ -11769,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L248" s="2" t="s">
         <v>193</v>
@@ -11783,7 +11783,7 @@
     </row>
     <row r="249" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>15</v>
@@ -11807,10 +11807,10 @@
         <v>1</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L249" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M249" s="2" t="s">
         <v>18</v>
@@ -11821,7 +11821,7 @@
     </row>
     <row r="250" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>15</v>
@@ -11845,7 +11845,7 @@
         <v>0</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L250" s="2" t="s">
         <v>17</v>
@@ -11859,7 +11859,7 @@
     </row>
     <row r="251" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>15</v>
@@ -11883,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L251" s="2" t="s">
         <v>86</v>
@@ -11897,7 +11897,7 @@
     </row>
     <row r="252" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>15</v>
@@ -11921,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L252" s="2" t="s">
         <v>17</v>
@@ -11935,7 +11935,7 @@
     </row>
     <row r="253" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>15</v>
@@ -11959,7 +11959,7 @@
         <v>1</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L253" s="2" t="s">
         <v>17</v>
@@ -11973,10 +11973,10 @@
     </row>
     <row r="254" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C254" s="2">
         <v>0</v>
@@ -11997,7 +11997,7 @@
         <v>1</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N254" s="2" t="s">
         <v>52</v>
@@ -12005,7 +12005,7 @@
     </row>
     <row r="255" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>15</v>
@@ -12029,13 +12029,13 @@
         <v>1</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L255" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M255" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N255" s="2" t="s">
         <v>52</v>
@@ -12043,7 +12043,7 @@
     </row>
     <row r="256" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>15</v>
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L256" s="2" t="s">
         <v>105</v>
@@ -12081,7 +12081,7 @@
     </row>
     <row r="257" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>15</v>
@@ -12105,13 +12105,13 @@
         <v>0</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L257" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M257" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N257" s="2" t="s">
         <v>52</v>
@@ -12119,7 +12119,7 @@
     </row>
     <row r="258" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>15</v>
@@ -12143,13 +12143,13 @@
         <v>0</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L258" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M258" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N258" s="2" t="s">
         <v>123</v>
@@ -12157,7 +12157,7 @@
     </row>
     <row r="259" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>15</v>
@@ -12181,13 +12181,13 @@
         <v>1</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L259" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M259" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N259" s="2" t="s">
         <v>123</v>
@@ -12195,31 +12195,31 @@
     </row>
     <row r="260" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C260" s="2">
+        <v>1</v>
+      </c>
+      <c r="D260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G260" s="2">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I260" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C260" s="2">
-        <v>1</v>
-      </c>
-      <c r="D260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G260" s="2">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I260" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="L260" s="2" t="s">
         <v>105</v>
@@ -12233,7 +12233,7 @@
     </row>
     <row r="261" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>15</v>
@@ -12257,7 +12257,7 @@
         <v>1</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L261" s="2" t="s">
         <v>17</v>
@@ -12271,7 +12271,7 @@
     </row>
     <row r="262" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>15</v>
@@ -12295,7 +12295,7 @@
         <v>1</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L262" s="2" t="s">
         <v>17</v>
@@ -12309,7 +12309,7 @@
     </row>
     <row r="263" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>15</v>
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L263" s="2" t="s">
         <v>17</v>
@@ -12347,7 +12347,7 @@
     </row>
     <row r="264" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>15</v>
@@ -12371,7 +12371,7 @@
         <v>1</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L264" s="2" t="s">
         <v>17</v>
@@ -12385,7 +12385,7 @@
     </row>
     <row r="265" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>15</v>
@@ -12409,7 +12409,7 @@
         <v>0</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L265" s="2" t="s">
         <v>17</v>
@@ -12423,7 +12423,7 @@
     </row>
     <row r="266" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>15</v>
@@ -12447,13 +12447,13 @@
         <v>1</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L266" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M266" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N266" s="2" t="s">
         <v>139</v>
@@ -12461,7 +12461,7 @@
     </row>
     <row r="267" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>15</v>
@@ -12485,13 +12485,13 @@
         <v>1</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L267" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M267" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N267" s="2" t="s">
         <v>42</v>
@@ -12499,7 +12499,7 @@
     </row>
     <row r="268" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>15</v>
@@ -12523,7 +12523,7 @@
         <v>1</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L268" s="2" t="s">
         <v>17</v>
@@ -12537,7 +12537,7 @@
     </row>
     <row r="269" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>15</v>
@@ -12561,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L269" s="2" t="s">
         <v>17</v>
@@ -12575,7 +12575,7 @@
     </row>
     <row r="270" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>15</v>
@@ -12599,13 +12599,13 @@
         <v>1</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L270" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M270" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N270" s="2" t="s">
         <v>70</v>
@@ -12613,7 +12613,7 @@
     </row>
     <row r="271" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>15</v>
@@ -12637,7 +12637,7 @@
         <v>1</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L271" s="2" t="s">
         <v>17</v>
@@ -12651,7 +12651,7 @@
     </row>
     <row r="272" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>15</v>
@@ -12675,7 +12675,7 @@
         <v>1</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L272" s="2" t="s">
         <v>38</v>
@@ -12689,7 +12689,7 @@
     </row>
     <row r="273" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>15</v>
@@ -12713,13 +12713,13 @@
         <v>1</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L273" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M273" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N273" s="2" t="s">
         <v>66</v>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="274" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>15</v>
@@ -12751,7 +12751,7 @@
         <v>1</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L274" s="2" t="s">
         <v>17</v>
@@ -12765,7 +12765,7 @@
     </row>
     <row r="275" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>15</v>
@@ -12789,7 +12789,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L275" s="2" t="s">
         <v>17</v>
@@ -12803,7 +12803,7 @@
     </row>
     <row r="276" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>15</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L276" s="2" t="s">
         <v>17</v>
@@ -12841,7 +12841,7 @@
     </row>
     <row r="277" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>15</v>
@@ -12865,7 +12865,7 @@
         <v>1</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L277" s="2" t="s">
         <v>17</v>
@@ -12879,7 +12879,7 @@
     </row>
     <row r="278" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>15</v>
@@ -12903,7 +12903,7 @@
         <v>1</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L278" s="2" t="s">
         <v>17</v>
@@ -12917,7 +12917,7 @@
     </row>
     <row r="279" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>15</v>
@@ -12941,7 +12941,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L279" s="2" t="s">
         <v>38</v>
@@ -12955,7 +12955,7 @@
     </row>
     <row r="280" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>15</v>
@@ -12979,7 +12979,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L280" s="2" t="s">
         <v>17</v>
@@ -12993,7 +12993,7 @@
     </row>
     <row r="281" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>15</v>
@@ -13017,7 +13017,7 @@
         <v>1</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L281" s="2" t="s">
         <v>17</v>
@@ -13031,7 +13031,7 @@
     </row>
     <row r="282" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>15</v>
@@ -13055,7 +13055,7 @@
         <v>1</v>
       </c>
       <c r="I282" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L282" s="2" t="s">
         <v>17</v>
@@ -13069,7 +13069,7 @@
     </row>
     <row r="283" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>15</v>
@@ -13093,13 +13093,13 @@
         <v>1</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L283" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M283" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N283" s="2" t="s">
         <v>66</v>
@@ -13107,7 +13107,7 @@
     </row>
     <row r="284" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>15</v>
@@ -13131,7 +13131,7 @@
         <v>1</v>
       </c>
       <c r="I284" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L284" s="2" t="s">
         <v>17</v>
@@ -13145,7 +13145,7 @@
     </row>
     <row r="285" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>15</v>
@@ -13169,13 +13169,13 @@
         <v>0</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L285" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M285" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N285" s="2" t="s">
         <v>66</v>
@@ -13183,7 +13183,7 @@
     </row>
     <row r="286" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>15</v>
@@ -13207,13 +13207,13 @@
         <v>1</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L286" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M286" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N286" s="2" t="s">
         <v>66</v>
@@ -13221,7 +13221,7 @@
     </row>
     <row r="287" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>15</v>
@@ -13245,7 +13245,7 @@
         <v>1</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L287" s="2" t="s">
         <v>179</v>
@@ -13259,37 +13259,37 @@
     </row>
     <row r="288" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C288" s="2">
+        <v>1</v>
+      </c>
+      <c r="D288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G288" s="2">
+        <v>0</v>
+      </c>
+      <c r="H288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I288" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="L288" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B288" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C288" s="2">
-        <v>1</v>
-      </c>
-      <c r="D288" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E288" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F288" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G288" s="2">
-        <v>0</v>
-      </c>
-      <c r="H288" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I288" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="L288" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="M288" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N288" s="2" t="s">
         <v>66</v>
@@ -13297,7 +13297,7 @@
     </row>
     <row r="289" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>15</v>
@@ -13321,7 +13321,7 @@
         <v>1</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L289" s="2" t="s">
         <v>17</v>
@@ -13335,7 +13335,7 @@
     </row>
     <row r="290" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>15</v>
@@ -13359,7 +13359,7 @@
         <v>1</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L290" s="2" t="s">
         <v>21</v>
@@ -13373,7 +13373,7 @@
     </row>
     <row r="291" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>15</v>
@@ -13397,7 +13397,7 @@
         <v>0</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L291" s="2" t="s">
         <v>17</v>
@@ -13411,7 +13411,7 @@
     </row>
     <row r="292" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>15</v>
@@ -13435,7 +13435,7 @@
         <v>0</v>
       </c>
       <c r="I292" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L292" s="2" t="s">
         <v>17</v>
@@ -13449,7 +13449,7 @@
     </row>
     <row r="293" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>15</v>
@@ -13473,13 +13473,13 @@
         <v>0</v>
       </c>
       <c r="I293" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L293" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M293" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N293" s="2" t="s">
         <v>19</v>
@@ -13487,7 +13487,7 @@
     </row>
     <row r="294" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>15</v>
@@ -13511,13 +13511,13 @@
         <v>1</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L294" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M294" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N294" s="2" t="s">
         <v>19</v>
@@ -13525,10 +13525,10 @@
     </row>
     <row r="295" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="C295" s="2">
         <v>10</v>
@@ -13549,7 +13549,7 @@
         <v>0</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N295" s="2" t="s">
         <v>19</v>
@@ -13557,10 +13557,10 @@
     </row>
     <row r="296" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C296" s="2">
         <v>10</v>
@@ -13581,7 +13581,7 @@
         <v>1</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N296" s="2" t="s">
         <v>19</v>
@@ -13589,37 +13589,37 @@
     </row>
     <row r="297" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C297" s="2">
+        <v>1</v>
+      </c>
+      <c r="D297" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E297" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F297" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G297" s="2">
+        <v>0</v>
+      </c>
+      <c r="H297" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I297" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L297" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B297" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C297" s="2">
-        <v>1</v>
-      </c>
-      <c r="D297" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E297" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F297" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G297" s="2">
-        <v>0</v>
-      </c>
-      <c r="H297" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I297" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="L297" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="M297" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N297" s="2" t="s">
         <v>19</v>
@@ -13627,7 +13627,7 @@
     </row>
     <row r="298" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>15</v>
@@ -13651,13 +13651,13 @@
         <v>1</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L298" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M298" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N298" s="2" t="s">
         <v>19</v>
@@ -13665,7 +13665,7 @@
     </row>
     <row r="299" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>15</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="I299" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L299" s="2" t="s">
         <v>17</v>
@@ -13703,7 +13703,7 @@
     </row>
     <row r="300" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>15</v>
@@ -13727,7 +13727,7 @@
         <v>1</v>
       </c>
       <c r="I300" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L300" s="2" t="s">
         <v>21</v>
@@ -13741,7 +13741,7 @@
     </row>
     <row r="301" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>15</v>
@@ -13765,13 +13765,13 @@
         <v>1</v>
       </c>
       <c r="I301" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L301" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M301" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N301" s="2" t="s">
         <v>19</v>
@@ -13779,7 +13779,7 @@
     </row>
     <row r="302" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>15</v>
@@ -13803,13 +13803,13 @@
         <v>1</v>
       </c>
       <c r="I302" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L302" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M302" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N302" s="2" t="s">
         <v>19</v>
@@ -13817,7 +13817,7 @@
     </row>
     <row r="303" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>15</v>
@@ -13841,13 +13841,13 @@
         <v>1</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L303" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M303" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N303" s="2" t="s">
         <v>19</v>
@@ -13855,10 +13855,10 @@
     </row>
     <row r="304" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C304" s="2">
         <v>10</v>
@@ -13879,7 +13879,7 @@
         <v>1</v>
       </c>
       <c r="I304" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N304" s="2" t="s">
         <v>19</v>
@@ -13887,7 +13887,7 @@
     </row>
     <row r="305" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>15</v>
@@ -13911,13 +13911,13 @@
         <v>1</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L305" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M305" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N305" s="2" t="s">
         <v>19</v>
@@ -13925,7 +13925,7 @@
     </row>
     <row r="306" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>15</v>
@@ -13949,7 +13949,7 @@
         <v>1</v>
       </c>
       <c r="I306" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L306" s="2" t="s">
         <v>21</v>
@@ -13963,10 +13963,10 @@
     </row>
     <row r="307" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C307" s="2">
         <v>10</v>
@@ -13987,7 +13987,7 @@
         <v>1</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N307" s="2" t="s">
         <v>19</v>
@@ -13995,10 +13995,10 @@
     </row>
     <row r="308" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C308" s="2">
         <v>10</v>
@@ -14019,7 +14019,7 @@
         <v>1</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N308" s="2" t="s">
         <v>19</v>
@@ -14027,7 +14027,7 @@
     </row>
     <row r="309" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>15</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L309" s="2" t="s">
         <v>17</v>
@@ -14065,37 +14065,37 @@
     </row>
     <row r="310" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C310" s="2">
+        <v>1</v>
+      </c>
+      <c r="D310" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E310" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F310" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G310" s="2">
+        <v>0</v>
+      </c>
+      <c r="H310" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I310" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L310" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B310" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C310" s="2">
-        <v>1</v>
-      </c>
-      <c r="D310" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E310" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F310" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G310" s="2">
-        <v>0</v>
-      </c>
-      <c r="H310" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I310" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="L310" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="M310" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N310" s="2" t="s">
         <v>19</v>
@@ -14103,7 +14103,7 @@
     </row>
     <row r="311" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>15</v>
@@ -14127,7 +14127,7 @@
         <v>1</v>
       </c>
       <c r="I311" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L311" s="2" t="s">
         <v>21</v>
@@ -14141,7 +14141,7 @@
     </row>
     <row r="312" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>15</v>
@@ -14165,7 +14165,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L312" s="2" t="s">
         <v>21</v>
@@ -14179,7 +14179,7 @@
     </row>
     <row r="313" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>15</v>
@@ -14203,7 +14203,7 @@
         <v>0</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L313" s="2" t="s">
         <v>17</v>
@@ -14217,7 +14217,7 @@
     </row>
     <row r="314" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>15</v>
@@ -14241,7 +14241,7 @@
         <v>0</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L314" s="2" t="s">
         <v>21</v>
@@ -14255,7 +14255,7 @@
     </row>
     <row r="315" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>15</v>
@@ -14279,13 +14279,13 @@
         <v>0</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L315" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M315" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N315" s="2" t="s">
         <v>19</v>
@@ -14293,7 +14293,7 @@
     </row>
     <row r="316" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>15</v>
@@ -14317,7 +14317,7 @@
         <v>1</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L316" s="2" t="s">
         <v>17</v>
@@ -14331,7 +14331,7 @@
     </row>
     <row r="317" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>15</v>
@@ -14355,13 +14355,13 @@
         <v>0</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L317" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M317" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N317" s="2" t="s">
         <v>52</v>
@@ -14369,7 +14369,7 @@
     </row>
     <row r="318" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>15</v>
@@ -14393,13 +14393,13 @@
         <v>1</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L318" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M318" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N318" s="2" t="s">
         <v>19</v>
@@ -14407,7 +14407,7 @@
     </row>
     <row r="319" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>15</v>
@@ -14431,7 +14431,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L319" s="2" t="s">
         <v>17</v>
@@ -14445,7 +14445,7 @@
     </row>
     <row r="320" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>15</v>
@@ -14469,7 +14469,7 @@
         <v>1</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L320" s="2" t="s">
         <v>50</v>
@@ -14483,7 +14483,7 @@
     </row>
     <row r="321" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>15</v>
@@ -14507,7 +14507,7 @@
         <v>1</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L321" s="2" t="s">
         <v>50</v>
@@ -14521,7 +14521,7 @@
     </row>
     <row r="322" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>15</v>
@@ -14545,7 +14545,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L322" s="2" t="s">
         <v>50</v>
@@ -14559,7 +14559,7 @@
     </row>
     <row r="323" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>15</v>
@@ -14583,7 +14583,7 @@
         <v>1</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L323" s="2" t="s">
         <v>50</v>
@@ -14597,7 +14597,7 @@
     </row>
     <row r="324" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>15</v>
@@ -14621,7 +14621,7 @@
         <v>1</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L324" s="2" t="s">
         <v>50</v>
@@ -14635,7 +14635,7 @@
     </row>
     <row r="325" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>15</v>
@@ -14659,7 +14659,7 @@
         <v>1</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L325" s="2" t="s">
         <v>50</v>
@@ -14673,7 +14673,7 @@
     </row>
     <row r="326" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>15</v>
@@ -14697,7 +14697,7 @@
         <v>0</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L326" s="2" t="s">
         <v>50</v>
@@ -14711,7 +14711,7 @@
     </row>
     <row r="327" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>15</v>
@@ -14735,7 +14735,7 @@
         <v>1</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L327" s="2" t="s">
         <v>50</v>
@@ -14749,7 +14749,7 @@
     </row>
     <row r="328" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>15</v>
@@ -14773,7 +14773,7 @@
         <v>1</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L328" s="2" t="s">
         <v>179</v>
@@ -14787,7 +14787,7 @@
     </row>
     <row r="329" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>15</v>
@@ -14811,7 +14811,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L329" s="2" t="s">
         <v>179</v>
@@ -14825,7 +14825,7 @@
     </row>
     <row r="330" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>15</v>
@@ -14849,7 +14849,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L330" s="2" t="s">
         <v>179</v>
@@ -14863,7 +14863,7 @@
     </row>
     <row r="331" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>15</v>
@@ -14887,7 +14887,7 @@
         <v>0</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L331" s="2" t="s">
         <v>94</v>
@@ -14901,7 +14901,7 @@
     </row>
     <row r="332" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>15</v>
@@ -14925,7 +14925,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L332" s="2" t="s">
         <v>26</v>
@@ -14939,7 +14939,7 @@
     </row>
     <row r="333" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>15</v>
@@ -14963,7 +14963,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L333" s="2" t="s">
         <v>17</v>
@@ -14977,7 +14977,7 @@
     </row>
     <row r="334" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>15</v>
@@ -15001,7 +15001,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L334" s="2" t="s">
         <v>17</v>
@@ -15015,7 +15015,7 @@
     </row>
     <row r="335" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>15</v>
@@ -15039,7 +15039,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L335" s="2" t="s">
         <v>50</v>
@@ -15053,7 +15053,7 @@
     </row>
     <row r="336" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>15</v>
@@ -15077,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L336" s="2" t="s">
         <v>179</v>
@@ -15091,7 +15091,7 @@
     </row>
     <row r="337" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>15</v>
@@ -15115,7 +15115,7 @@
         <v>1</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L337" s="2" t="s">
         <v>179</v>
@@ -15129,7 +15129,7 @@
     </row>
     <row r="338" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>15</v>
@@ -15153,7 +15153,7 @@
         <v>0</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J338" s="2" t="s">
         <v>58</v>
@@ -15173,7 +15173,7 @@
     </row>
     <row r="339" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>15</v>
@@ -15197,13 +15197,13 @@
         <v>1</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L339" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M339" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N339" s="2" t="s">
         <v>52</v>
@@ -15211,7 +15211,7 @@
     </row>
     <row r="340" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>15</v>
@@ -15235,7 +15235,7 @@
         <v>0</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L340" s="2" t="s">
         <v>17</v>
@@ -15249,7 +15249,7 @@
     </row>
     <row r="341" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>15</v>
@@ -15273,7 +15273,7 @@
         <v>0</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L341" s="2" t="s">
         <v>17</v>
@@ -15287,7 +15287,7 @@
     </row>
     <row r="342" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>15</v>
@@ -15311,13 +15311,13 @@
         <v>0</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L342" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M342" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N342" s="2" t="s">
         <v>52</v>
@@ -15325,7 +15325,7 @@
     </row>
     <row r="343" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>15</v>
@@ -15349,7 +15349,7 @@
         <v>1</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L343" s="2" t="s">
         <v>50</v>
@@ -15363,7 +15363,7 @@
     </row>
     <row r="344" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>15</v>
@@ -15387,10 +15387,10 @@
         <v>1</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L344" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M344" s="2" t="s">
         <v>18</v>
@@ -15401,37 +15401,37 @@
     </row>
     <row r="345" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C345" s="2">
+        <v>1</v>
+      </c>
+      <c r="D345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G345" s="2">
+        <v>1</v>
+      </c>
+      <c r="H345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I345" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="L345" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B345" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C345" s="2">
-        <v>1</v>
-      </c>
-      <c r="D345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G345" s="2">
-        <v>1</v>
-      </c>
-      <c r="H345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I345" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="L345" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="M345" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N345" s="2" t="s">
         <v>52</v>
@@ -15439,7 +15439,7 @@
     </row>
     <row r="346" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>15</v>
@@ -15463,7 +15463,7 @@
         <v>0</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L346" s="2" t="s">
         <v>17</v>
@@ -15477,7 +15477,7 @@
     </row>
     <row r="347" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>15</v>
@@ -15501,13 +15501,13 @@
         <v>0</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L347" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M347" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N347" s="2" t="s">
         <v>52</v>
@@ -15515,7 +15515,7 @@
     </row>
     <row r="348" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>15</v>
@@ -15539,7 +15539,7 @@
         <v>0</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J348" s="2" t="b">
         <v>1</v>
@@ -15559,7 +15559,7 @@
     </row>
     <row r="349" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>15</v>
@@ -15583,7 +15583,7 @@
         <v>1</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L349" s="2" t="s">
         <v>105</v>
@@ -15597,37 +15597,37 @@
     </row>
     <row r="350" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C350" s="2">
+        <v>1</v>
+      </c>
+      <c r="D350" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E350" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F350" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G350" s="2">
+        <v>1</v>
+      </c>
+      <c r="H350" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I350" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B350" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C350" s="2">
-        <v>1</v>
-      </c>
-      <c r="D350" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E350" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F350" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G350" s="2">
-        <v>1</v>
-      </c>
-      <c r="H350" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I350" s="2" t="s">
+      <c r="L350" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="L350" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="M350" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N350" s="2" t="s">
         <v>19</v>
@@ -15635,7 +15635,7 @@
     </row>
     <row r="351" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>15</v>
@@ -15659,7 +15659,7 @@
         <v>1</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L351" s="2" t="s">
         <v>17</v>
@@ -15673,7 +15673,7 @@
     </row>
     <row r="352" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>15</v>
@@ -15697,7 +15697,7 @@
         <v>1</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L352" s="2" t="s">
         <v>17</v>
@@ -15711,7 +15711,7 @@
     </row>
     <row r="353" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>15</v>
@@ -15735,13 +15735,13 @@
         <v>1</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L353" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M353" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N353" s="2" t="s">
         <v>19</v>
@@ -15749,7 +15749,7 @@
     </row>
     <row r="354" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>15</v>
@@ -15773,7 +15773,7 @@
         <v>1</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L354" s="2" t="s">
         <v>17</v>
@@ -15787,7 +15787,7 @@
     </row>
     <row r="355" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>15</v>
@@ -15811,7 +15811,7 @@
         <v>0</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L355" s="2" t="s">
         <v>17</v>
@@ -15825,7 +15825,7 @@
     </row>
     <row r="356" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>15</v>
@@ -15849,13 +15849,13 @@
         <v>0</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L356" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M356" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N356" s="2" t="s">
         <v>19</v>
@@ -15863,7 +15863,7 @@
     </row>
     <row r="357" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>15</v>
@@ -15887,13 +15887,13 @@
         <v>1</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L357" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M357" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N357" s="2" t="s">
         <v>19</v>
@@ -15901,7 +15901,7 @@
     </row>
     <row r="358" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>15</v>
@@ -15925,13 +15925,13 @@
         <v>1</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L358" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M358" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N358" s="2" t="s">
         <v>19</v>
@@ -15939,7 +15939,7 @@
     </row>
     <row r="359" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>15</v>
@@ -15963,7 +15963,7 @@
         <v>1</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L359" s="2" t="s">
         <v>105</v>
@@ -15977,7 +15977,7 @@
     </row>
     <row r="360" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>15</v>
@@ -16001,13 +16001,13 @@
         <v>0</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L360" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M360" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N360" s="2" t="s">
         <v>19</v>
@@ -16015,7 +16015,7 @@
     </row>
     <row r="361" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>15</v>
@@ -16039,7 +16039,7 @@
         <v>0</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L361" s="2" t="s">
         <v>17</v>
@@ -16053,7 +16053,7 @@
     </row>
     <row r="362" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>15</v>
@@ -16077,13 +16077,13 @@
         <v>0</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L362" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M362" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N362" s="2" t="s">
         <v>19</v>
@@ -16091,7 +16091,7 @@
     </row>
     <row r="363" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>15</v>
@@ -16115,7 +16115,7 @@
         <v>0</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L363" s="2" t="s">
         <v>17</v>
@@ -16129,7 +16129,7 @@
     </row>
     <row r="364" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>15</v>
@@ -16153,7 +16153,7 @@
         <v>1</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L364" s="2" t="s">
         <v>30</v>
@@ -16167,7 +16167,7 @@
     </row>
     <row r="365" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>15</v>
@@ -16191,10 +16191,10 @@
         <v>1</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L365" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M365" s="2" t="s">
         <v>18</v>
@@ -16205,7 +16205,7 @@
     </row>
     <row r="366" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>15</v>
@@ -16229,13 +16229,13 @@
         <v>1</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L366" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M366" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N366" s="2" t="s">
         <v>19</v>
@@ -16243,11 +16243,11 @@
     </row>
     <row r="367" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B367" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B367" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="C367" s="2">
         <v>0</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>0</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N367" s="2" t="s">
         <v>19</v>
@@ -16275,7 +16275,7 @@
     </row>
     <row r="368" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>15</v>
@@ -16299,13 +16299,13 @@
         <v>1</v>
       </c>
       <c r="I368" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L368" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M368" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N368" s="2" t="s">
         <v>19</v>
@@ -16313,7 +16313,7 @@
     </row>
     <row r="369" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>15</v>
@@ -16337,13 +16337,13 @@
         <v>0</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L369" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M369" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N369" s="2" t="s">
         <v>19</v>
@@ -16351,7 +16351,7 @@
     </row>
     <row r="370" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>15</v>
@@ -16375,7 +16375,7 @@
         <v>0</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L370" s="2" t="s">
         <v>17</v>
@@ -16389,10 +16389,10 @@
     </row>
     <row r="371" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C371" s="2">
         <v>0</v>
@@ -16413,7 +16413,7 @@
         <v>0</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N371" s="2" t="s">
         <v>44</v>
@@ -16421,7 +16421,7 @@
     </row>
     <row r="372" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>15</v>
@@ -16445,13 +16445,13 @@
         <v>1</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L372" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M372" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N372" s="2" t="s">
         <v>33</v>
@@ -16459,7 +16459,7 @@
     </row>
     <row r="373" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>15</v>
@@ -16483,7 +16483,7 @@
         <v>1</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L373" s="2" t="s">
         <v>30</v>
@@ -16497,7 +16497,7 @@
     </row>
     <row r="374" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>15</v>
@@ -16521,7 +16521,7 @@
         <v>1</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L374" s="2" t="s">
         <v>17</v>
@@ -16535,7 +16535,7 @@
     </row>
     <row r="375" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>15</v>
@@ -16559,7 +16559,7 @@
         <v>0</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L375" s="2" t="s">
         <v>105</v>
@@ -16573,7 +16573,7 @@
     </row>
     <row r="376" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>15</v>
@@ -16597,7 +16597,7 @@
         <v>1</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L376" s="2" t="s">
         <v>50</v>
@@ -16611,7 +16611,7 @@
     </row>
     <row r="377" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>15</v>
@@ -16635,7 +16635,7 @@
         <v>1</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L377" s="2" t="s">
         <v>17</v>
@@ -16649,7 +16649,7 @@
     </row>
     <row r="378" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>15</v>
@@ -16673,7 +16673,7 @@
         <v>0</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L378" s="2" t="s">
         <v>17</v>
@@ -16687,7 +16687,7 @@
     </row>
     <row r="379" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>15</v>
@@ -16711,10 +16711,10 @@
         <v>0</v>
       </c>
       <c r="I379" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L379" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M379" s="2" t="s">
         <v>18</v>
@@ -16725,37 +16725,37 @@
     </row>
     <row r="380" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C380" s="2">
+        <v>1</v>
+      </c>
+      <c r="D380" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E380" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F380" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G380" s="2">
+        <v>1</v>
+      </c>
+      <c r="H380" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I380" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B380" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C380" s="2">
-        <v>1</v>
-      </c>
-      <c r="D380" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E380" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F380" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G380" s="2">
-        <v>1</v>
-      </c>
-      <c r="H380" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I380" s="2" t="s">
+      <c r="L380" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="L380" s="2" t="s">
-        <v>470</v>
-      </c>
       <c r="M380" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N380" s="2" t="s">
         <v>19</v>
@@ -16763,7 +16763,7 @@
     </row>
     <row r="381" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>15</v>
@@ -16787,13 +16787,13 @@
         <v>1</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L381" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M381" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N381" s="2" t="s">
         <v>19</v>
@@ -16801,7 +16801,7 @@
     </row>
     <row r="382" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>15</v>
@@ -16825,7 +16825,7 @@
         <v>1</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L382" s="2" t="s">
         <v>30</v>
@@ -16839,7 +16839,7 @@
     </row>
     <row r="383" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>15</v>
@@ -16863,13 +16863,13 @@
         <v>0</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L383" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M383" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N383" s="2" t="s">
         <v>19</v>
@@ -16877,7 +16877,7 @@
     </row>
     <row r="384" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>15</v>
@@ -16901,7 +16901,7 @@
         <v>0</v>
       </c>
       <c r="I384" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L384" s="2" t="s">
         <v>17</v>
@@ -16915,7 +16915,7 @@
     </row>
     <row r="385" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>15</v>
@@ -16939,13 +16939,13 @@
         <v>1</v>
       </c>
       <c r="I385" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L385" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M385" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N385" s="2" t="s">
         <v>19</v>
@@ -16953,7 +16953,7 @@
     </row>
     <row r="386" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>15</v>
@@ -16977,13 +16977,13 @@
         <v>1</v>
       </c>
       <c r="I386" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L386" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M386" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N386" s="2" t="s">
         <v>19</v>
@@ -16991,7 +16991,7 @@
     </row>
     <row r="387" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>15</v>
@@ -17015,13 +17015,13 @@
         <v>0</v>
       </c>
       <c r="I387" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L387" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M387" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N387" s="2" t="s">
         <v>19</v>
@@ -17029,7 +17029,7 @@
     </row>
     <row r="388" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>15</v>
@@ -17053,13 +17053,13 @@
         <v>0</v>
       </c>
       <c r="I388" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L388" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M388" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N388" s="2" t="s">
         <v>19</v>
@@ -17067,10 +17067,10 @@
     </row>
     <row r="389" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C389" s="2">
         <v>0</v>
@@ -17091,7 +17091,7 @@
         <v>0</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N389" s="2" t="s">
         <v>19</v>
@@ -17099,7 +17099,7 @@
     </row>
     <row r="390" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>15</v>
@@ -17123,7 +17123,7 @@
         <v>1</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L390" s="2" t="s">
         <v>17</v>
@@ -17137,7 +17137,7 @@
     </row>
     <row r="391" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>15</v>
@@ -17161,13 +17161,13 @@
         <v>1</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L391" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M391" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N391" s="2" t="s">
         <v>19</v>
@@ -17175,7 +17175,7 @@
     </row>
     <row r="392" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>15</v>
@@ -17199,13 +17199,13 @@
         <v>0</v>
       </c>
       <c r="I392" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L392" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M392" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N392" s="2" t="s">
         <v>19</v>
@@ -17213,7 +17213,7 @@
     </row>
     <row r="393" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>15</v>
@@ -17237,13 +17237,13 @@
         <v>0</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L393" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M393" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N393" s="2" t="s">
         <v>19</v>
@@ -17251,7 +17251,7 @@
     </row>
     <row r="394" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>15</v>
@@ -17275,7 +17275,7 @@
         <v>0</v>
       </c>
       <c r="I394" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L394" s="2" t="s">
         <v>17</v>
@@ -17289,7 +17289,7 @@
     </row>
     <row r="395" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>15</v>
@@ -17313,13 +17313,13 @@
         <v>1</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L395" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M395" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N395" s="2" t="s">
         <v>44</v>
@@ -17327,7 +17327,7 @@
     </row>
     <row r="396" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>15</v>
@@ -17351,7 +17351,7 @@
         <v>0</v>
       </c>
       <c r="I396" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L396" s="2" t="s">
         <v>17</v>
@@ -17365,7 +17365,7 @@
     </row>
     <row r="397" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>15</v>
@@ -17389,7 +17389,7 @@
         <v>0</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L397" s="2" t="s">
         <v>86</v>
@@ -17403,7 +17403,7 @@
     </row>
     <row r="398" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>15</v>
@@ -17427,7 +17427,7 @@
         <v>1</v>
       </c>
       <c r="I398" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L398" s="2" t="s">
         <v>30</v>
@@ -17441,10 +17441,10 @@
     </row>
     <row r="399" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C399" s="2">
         <v>0</v>
@@ -17465,7 +17465,7 @@
         <v>0</v>
       </c>
       <c r="I399" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N399" s="2" t="s">
         <v>44</v>
@@ -17473,37 +17473,37 @@
     </row>
     <row r="400" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C400" s="2">
+        <v>1</v>
+      </c>
+      <c r="D400" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E400" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F400" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G400" s="2">
+        <v>1</v>
+      </c>
+      <c r="H400" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I400" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="L400" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B400" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C400" s="2">
-        <v>1</v>
-      </c>
-      <c r="D400" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E400" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F400" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G400" s="2">
-        <v>1</v>
-      </c>
-      <c r="H400" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I400" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="L400" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="M400" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N400" s="2" t="s">
         <v>44</v>
@@ -17511,7 +17511,7 @@
     </row>
     <row r="401" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>15</v>
@@ -17535,7 +17535,7 @@
         <v>1</v>
       </c>
       <c r="I401" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L401" s="2" t="s">
         <v>38</v>
@@ -17549,7 +17549,7 @@
     </row>
     <row r="402" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>15</v>
@@ -17573,7 +17573,7 @@
         <v>0</v>
       </c>
       <c r="I402" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L402" s="2" t="s">
         <v>47</v>
@@ -17587,10 +17587,10 @@
     </row>
     <row r="403" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C403" s="2">
         <v>0</v>
@@ -17611,7 +17611,7 @@
         <v>0</v>
       </c>
       <c r="I403" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N403" s="2" t="s">
         <v>44</v>
@@ -17619,7 +17619,7 @@
     </row>
     <row r="404" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>15</v>
@@ -17643,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="I404" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L404" s="2" t="s">
         <v>17</v>
@@ -17657,10 +17657,10 @@
     </row>
     <row r="405" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C405" s="2">
         <v>0</v>
@@ -17681,7 +17681,7 @@
         <v>0</v>
       </c>
       <c r="I405" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N405" s="2" t="s">
         <v>44</v>
@@ -17689,7 +17689,7 @@
     </row>
     <row r="406" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>15</v>
@@ -17713,13 +17713,13 @@
         <v>0</v>
       </c>
       <c r="I406" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L406" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M406" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N406" s="2" t="s">
         <v>70</v>
@@ -17727,7 +17727,7 @@
     </row>
     <row r="407" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>15</v>
@@ -17751,13 +17751,13 @@
         <v>0</v>
       </c>
       <c r="I407" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L407" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M407" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N407" s="2" t="s">
         <v>66</v>
@@ -17765,7 +17765,7 @@
     </row>
     <row r="408" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>15</v>
@@ -17789,7 +17789,7 @@
         <v>1</v>
       </c>
       <c r="I408" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L408" s="2" t="s">
         <v>47</v>
@@ -17803,7 +17803,7 @@
     </row>
     <row r="409" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>15</v>
@@ -17827,13 +17827,13 @@
         <v>0</v>
       </c>
       <c r="I409" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L409" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M409" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N409" s="2" t="s">
         <v>19</v>
@@ -17841,31 +17841,31 @@
     </row>
     <row r="410" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C410" s="2">
+        <v>1</v>
+      </c>
+      <c r="D410" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E410" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F410" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G410" s="2">
+        <v>0</v>
+      </c>
+      <c r="H410" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I410" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="B410" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C410" s="2">
-        <v>1</v>
-      </c>
-      <c r="D410" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E410" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F410" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G410" s="2">
-        <v>0</v>
-      </c>
-      <c r="H410" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I410" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="L410" s="2" t="s">
         <v>50</v>
@@ -17879,7 +17879,7 @@
     </row>
     <row r="411" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>15</v>
@@ -17903,7 +17903,7 @@
         <v>0</v>
       </c>
       <c r="I411" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L411" s="2" t="s">
         <v>17</v>
@@ -17917,7 +17917,7 @@
     </row>
     <row r="412" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>15</v>
@@ -17941,7 +17941,7 @@
         <v>0</v>
       </c>
       <c r="I412" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L412" s="2" t="s">
         <v>21</v>
@@ -17955,7 +17955,7 @@
     </row>
     <row r="413" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>15</v>
@@ -17979,7 +17979,7 @@
         <v>0</v>
       </c>
       <c r="I413" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L413" s="2" t="s">
         <v>17</v>
@@ -17993,7 +17993,7 @@
     </row>
     <row r="414" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>15</v>
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L414" s="2" t="s">
         <v>17</v>
@@ -18031,10 +18031,10 @@
     </row>
     <row r="415" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C415" s="2">
         <v>0</v>
@@ -18055,7 +18055,7 @@
         <v>0</v>
       </c>
       <c r="I415" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N415" s="2" t="s">
         <v>44</v>
@@ -18063,7 +18063,7 @@
     </row>
     <row r="416" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>15</v>
@@ -18087,7 +18087,7 @@
         <v>0</v>
       </c>
       <c r="I416" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L416" s="2" t="s">
         <v>17</v>
@@ -18101,7 +18101,7 @@
     </row>
     <row r="417" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>15</v>
@@ -18125,7 +18125,7 @@
         <v>0</v>
       </c>
       <c r="I417" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L417" s="2" t="s">
         <v>17</v>
@@ -18139,7 +18139,7 @@
     </row>
     <row r="418" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>15</v>
@@ -18163,7 +18163,7 @@
         <v>0</v>
       </c>
       <c r="I418" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L418" s="2" t="s">
         <v>17</v>
@@ -18177,7 +18177,7 @@
     </row>
     <row r="419" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>15</v>
@@ -18201,7 +18201,7 @@
         <v>0</v>
       </c>
       <c r="I419" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L419" s="2" t="s">
         <v>17</v>
@@ -18215,7 +18215,7 @@
     </row>
     <row r="420" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>15</v>
@@ -18239,7 +18239,7 @@
         <v>0</v>
       </c>
       <c r="I420" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L420" s="2" t="s">
         <v>38</v>
@@ -18253,37 +18253,37 @@
     </row>
     <row r="421" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C421" s="2">
+        <v>1</v>
+      </c>
+      <c r="D421" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E421" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F421" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G421" s="2">
+        <v>0</v>
+      </c>
+      <c r="H421" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I421" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="L421" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B421" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C421" s="2">
-        <v>1</v>
-      </c>
-      <c r="D421" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E421" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F421" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G421" s="2">
-        <v>0</v>
-      </c>
-      <c r="H421" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I421" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="L421" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="M421" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N421" s="2" t="s">
         <v>48</v>
@@ -18291,7 +18291,7 @@
     </row>
     <row r="422" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>15</v>
@@ -18315,7 +18315,7 @@
         <v>1</v>
       </c>
       <c r="I422" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L422" s="2" t="s">
         <v>17</v>
@@ -18329,7 +18329,7 @@
     </row>
     <row r="423" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>15</v>
@@ -18353,7 +18353,7 @@
         <v>1</v>
       </c>
       <c r="I423" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L423" s="2" t="s">
         <v>179</v>
@@ -18367,7 +18367,7 @@
     </row>
     <row r="424" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>15</v>
@@ -18391,7 +18391,7 @@
         <v>1</v>
       </c>
       <c r="I424" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L424" s="2" t="s">
         <v>17</v>
@@ -18405,7 +18405,7 @@
     </row>
     <row r="425" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>15</v>
@@ -18429,7 +18429,7 @@
         <v>0</v>
       </c>
       <c r="I425" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L425" s="2" t="s">
         <v>17</v>
@@ -18443,7 +18443,7 @@
     </row>
     <row r="426" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>15</v>
@@ -18467,7 +18467,7 @@
         <v>1</v>
       </c>
       <c r="I426" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L426" s="2" t="s">
         <v>17</v>
@@ -18481,7 +18481,7 @@
     </row>
     <row r="427" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>15</v>
@@ -18505,7 +18505,7 @@
         <v>0</v>
       </c>
       <c r="I427" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L427" s="2" t="s">
         <v>17</v>
@@ -18519,7 +18519,7 @@
     </row>
     <row r="428" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>15</v>
@@ -18543,7 +18543,7 @@
         <v>1</v>
       </c>
       <c r="I428" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L428" s="2" t="s">
         <v>17</v>
@@ -18557,7 +18557,7 @@
     </row>
     <row r="429" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>15</v>
@@ -18581,7 +18581,7 @@
         <v>0</v>
       </c>
       <c r="I429" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L429" s="2" t="s">
         <v>17</v>
@@ -18595,7 +18595,7 @@
     </row>
     <row r="430" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>15</v>
@@ -18619,7 +18619,7 @@
         <v>1</v>
       </c>
       <c r="I430" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L430" s="2" t="s">
         <v>17</v>
@@ -18633,7 +18633,7 @@
     </row>
     <row r="431" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>15</v>
@@ -18657,7 +18657,7 @@
         <v>0</v>
       </c>
       <c r="I431" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L431" s="2" t="s">
         <v>94</v>
@@ -18671,7 +18671,7 @@
     </row>
     <row r="432" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>15</v>
@@ -18695,13 +18695,13 @@
         <v>1</v>
       </c>
       <c r="I432" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L432" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M432" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N432" s="2" t="s">
         <v>52</v>
@@ -18709,7 +18709,7 @@
     </row>
     <row r="433" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>15</v>
@@ -18733,7 +18733,7 @@
         <v>1</v>
       </c>
       <c r="I433" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L433" s="2" t="s">
         <v>17</v>
@@ -18747,7 +18747,7 @@
     </row>
     <row r="434" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>15</v>
@@ -18771,7 +18771,7 @@
         <v>0</v>
       </c>
       <c r="I434" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L434" s="2" t="s">
         <v>17</v>
@@ -18785,7 +18785,7 @@
     </row>
     <row r="435" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>15</v>
@@ -18809,13 +18809,13 @@
         <v>0</v>
       </c>
       <c r="I435" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L435" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M435" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N435" s="2" t="s">
         <v>52</v>
@@ -18823,7 +18823,7 @@
     </row>
     <row r="436" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>15</v>
@@ -18847,7 +18847,7 @@
         <v>0</v>
       </c>
       <c r="I436" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L436" s="2" t="s">
         <v>17</v>
@@ -18861,7 +18861,7 @@
     </row>
     <row r="437" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>15</v>
@@ -18885,7 +18885,7 @@
         <v>0</v>
       </c>
       <c r="I437" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L437" s="2" t="s">
         <v>86</v>
@@ -18899,7 +18899,7 @@
     </row>
     <row r="438" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>15</v>
@@ -18923,7 +18923,7 @@
         <v>1</v>
       </c>
       <c r="I438" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L438" s="2" t="s">
         <v>94</v>
@@ -18937,7 +18937,7 @@
     </row>
     <row r="439" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>15</v>
@@ -18961,7 +18961,7 @@
         <v>0</v>
       </c>
       <c r="I439" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L439" s="2" t="s">
         <v>38</v>
@@ -18975,10 +18975,10 @@
     </row>
     <row r="440" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C440" s="2">
         <v>10</v>
@@ -18999,7 +18999,7 @@
         <v>1</v>
       </c>
       <c r="I440" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N440" s="2" t="s">
         <v>19</v>
@@ -19007,7 +19007,7 @@
     </row>
     <row r="441" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>15</v>
@@ -19031,13 +19031,13 @@
         <v>0</v>
       </c>
       <c r="I441" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L441" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M441" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N441" s="2" t="s">
         <v>19</v>
@@ -19045,7 +19045,7 @@
     </row>
     <row r="442" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>15</v>
@@ -19069,7 +19069,7 @@
         <v>1</v>
       </c>
       <c r="I442" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L442" s="2" t="s">
         <v>38</v>
@@ -19083,7 +19083,7 @@
     </row>
     <row r="443" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>15</v>
@@ -19107,7 +19107,7 @@
         <v>1</v>
       </c>
       <c r="I443" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L443" s="2" t="s">
         <v>30</v>
@@ -19121,7 +19121,7 @@
     </row>
     <row r="444" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>15</v>
@@ -19145,7 +19145,7 @@
         <v>1</v>
       </c>
       <c r="I444" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L444" s="2" t="s">
         <v>38</v>
@@ -19159,7 +19159,7 @@
     </row>
     <row r="445" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>15</v>
@@ -19183,13 +19183,13 @@
         <v>0</v>
       </c>
       <c r="I445" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L445" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M445" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N445" s="2" t="s">
         <v>19</v>
@@ -19197,7 +19197,7 @@
     </row>
     <row r="446" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>15</v>
@@ -19221,13 +19221,13 @@
         <v>0</v>
       </c>
       <c r="I446" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L446" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M446" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N446" s="2" t="s">
         <v>19</v>
@@ -19235,7 +19235,7 @@
     </row>
     <row r="447" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>15</v>
@@ -19259,7 +19259,7 @@
         <v>0</v>
       </c>
       <c r="I447" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L447" s="2" t="s">
         <v>38</v>
@@ -19273,7 +19273,7 @@
     </row>
     <row r="448" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>15</v>
@@ -19297,7 +19297,7 @@
         <v>1</v>
       </c>
       <c r="I448" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L448" s="2" t="s">
         <v>38</v>
@@ -19311,7 +19311,7 @@
     </row>
     <row r="449" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>15</v>
@@ -19335,13 +19335,13 @@
         <v>0</v>
       </c>
       <c r="I449" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L449" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M449" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N449" s="2" t="s">
         <v>19</v>
@@ -19349,7 +19349,7 @@
     </row>
     <row r="450" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A450" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>15</v>
@@ -19373,7 +19373,7 @@
         <v>1</v>
       </c>
       <c r="I450" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L450" s="2" t="s">
         <v>50</v>
@@ -19387,7 +19387,7 @@
     </row>
     <row r="451" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>15</v>
@@ -19411,13 +19411,13 @@
         <v>0</v>
       </c>
       <c r="I451" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L451" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M451" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N451" s="2" t="s">
         <v>19</v>
@@ -19425,7 +19425,7 @@
     </row>
     <row r="452" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A452" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>15</v>
@@ -19449,13 +19449,13 @@
         <v>0</v>
       </c>
       <c r="I452" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L452" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M452" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N452" s="2" t="s">
         <v>19</v>
@@ -19463,7 +19463,7 @@
     </row>
     <row r="453" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>15</v>
@@ -19487,7 +19487,7 @@
         <v>0</v>
       </c>
       <c r="I453" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L453" s="2" t="s">
         <v>38</v>
@@ -19501,7 +19501,7 @@
     </row>
     <row r="454" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>15</v>
@@ -19525,7 +19525,7 @@
         <v>1</v>
       </c>
       <c r="I454" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L454" s="2" t="s">
         <v>21</v>
@@ -19539,7 +19539,7 @@
     </row>
     <row r="455" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>15</v>
@@ -19563,7 +19563,7 @@
         <v>1</v>
       </c>
       <c r="I455" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L455" s="2" t="s">
         <v>38</v>
@@ -19577,7 +19577,7 @@
     </row>
     <row r="456" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>15</v>
@@ -19601,7 +19601,7 @@
         <v>0</v>
       </c>
       <c r="I456" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L456" s="2" t="s">
         <v>38</v>
@@ -19615,7 +19615,7 @@
     </row>
     <row r="457" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>15</v>
@@ -19639,13 +19639,13 @@
         <v>1</v>
       </c>
       <c r="I457" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L457" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M457" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N457" s="2" t="s">
         <v>19</v>
@@ -19653,7 +19653,7 @@
     </row>
     <row r="458" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>15</v>
@@ -19677,13 +19677,13 @@
         <v>0</v>
       </c>
       <c r="I458" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L458" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M458" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N458" s="2" t="s">
         <v>19</v>
@@ -19691,7 +19691,7 @@
     </row>
     <row r="459" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>15</v>
@@ -19715,7 +19715,7 @@
         <v>0</v>
       </c>
       <c r="I459" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L459" s="2" t="s">
         <v>38</v>
@@ -19729,7 +19729,7 @@
     </row>
     <row r="460" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A460" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>15</v>
@@ -19753,13 +19753,13 @@
         <v>0</v>
       </c>
       <c r="I460" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L460" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M460" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N460" s="2" t="s">
         <v>123</v>
@@ -19767,7 +19767,7 @@
     </row>
     <row r="461" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>15</v>
@@ -19791,13 +19791,13 @@
         <v>1</v>
       </c>
       <c r="I461" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L461" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M461" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N461" s="2" t="s">
         <v>33</v>
@@ -19805,7 +19805,7 @@
     </row>
     <row r="462" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A462" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>15</v>
@@ -19829,7 +19829,7 @@
         <v>0</v>
       </c>
       <c r="I462" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L462" s="2" t="s">
         <v>17</v>
@@ -19843,7 +19843,7 @@
     </row>
     <row r="463" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>15</v>
@@ -19867,7 +19867,7 @@
         <v>1</v>
       </c>
       <c r="I463" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L463" s="2" t="s">
         <v>17</v>
@@ -19881,7 +19881,7 @@
     </row>
     <row r="464" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>15</v>
@@ -19905,7 +19905,7 @@
         <v>0</v>
       </c>
       <c r="I464" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L464" s="2" t="s">
         <v>17</v>
@@ -19919,7 +19919,7 @@
     </row>
     <row r="465" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>15</v>
@@ -19943,13 +19943,13 @@
         <v>0</v>
       </c>
       <c r="I465" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L465" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M465" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N465" s="2" t="s">
         <v>33</v>
@@ -19957,7 +19957,7 @@
     </row>
     <row r="466" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A466" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>15</v>
@@ -19981,7 +19981,7 @@
         <v>0</v>
       </c>
       <c r="I466" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L466" s="2" t="s">
         <v>17</v>
@@ -19995,10 +19995,10 @@
     </row>
     <row r="467" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C467" s="2">
         <v>0</v>
@@ -20019,7 +20019,7 @@
         <v>0</v>
       </c>
       <c r="I467" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N467" s="2" t="s">
         <v>52</v>
@@ -20027,7 +20027,7 @@
     </row>
     <row r="468" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A468" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>15</v>
@@ -20051,13 +20051,13 @@
         <v>0</v>
       </c>
       <c r="I468" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L468" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M468" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N468" s="2" t="s">
         <v>123</v>
@@ -20065,7 +20065,7 @@
     </row>
     <row r="469" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>15</v>
@@ -20089,13 +20089,13 @@
         <v>0</v>
       </c>
       <c r="I469" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L469" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M469" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N469" s="2" t="s">
         <v>123</v>
@@ -20103,31 +20103,31 @@
     </row>
     <row r="470" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A470" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C470" s="2">
+        <v>1</v>
+      </c>
+      <c r="D470" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E470" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F470" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G470" s="2">
+        <v>0</v>
+      </c>
+      <c r="H470" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I470" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="B470" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C470" s="2">
-        <v>1</v>
-      </c>
-      <c r="D470" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E470" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F470" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G470" s="2">
-        <v>0</v>
-      </c>
-      <c r="H470" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I470" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="L470" s="2" t="s">
         <v>17</v>
@@ -20141,10 +20141,10 @@
     </row>
     <row r="471" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C471" s="2">
         <v>10</v>
@@ -20165,7 +20165,7 @@
         <v>0</v>
       </c>
       <c r="I471" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N471" s="2" t="s">
         <v>19</v>
@@ -20173,7 +20173,7 @@
     </row>
     <row r="472" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A472" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>15</v>
@@ -20197,7 +20197,7 @@
         <v>0</v>
       </c>
       <c r="I472" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L472" s="2" t="s">
         <v>94</v>
@@ -20211,7 +20211,7 @@
     </row>
     <row r="473" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>15</v>
@@ -20235,7 +20235,7 @@
         <v>0</v>
       </c>
       <c r="I473" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L473" s="2" t="s">
         <v>17</v>
@@ -20249,7 +20249,7 @@
     </row>
     <row r="474" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A474" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>15</v>
@@ -20273,7 +20273,7 @@
         <v>1</v>
       </c>
       <c r="I474" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L474" s="2" t="s">
         <v>17</v>
@@ -20287,7 +20287,7 @@
     </row>
     <row r="475" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>15</v>
@@ -20311,7 +20311,7 @@
         <v>1</v>
       </c>
       <c r="I475" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L475" s="2" t="s">
         <v>17</v>
@@ -20325,10 +20325,10 @@
     </row>
     <row r="476" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A476" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C476" s="2">
         <v>10</v>
@@ -20349,7 +20349,7 @@
         <v>1</v>
       </c>
       <c r="I476" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N476" s="2" t="s">
         <v>19</v>
@@ -20357,7 +20357,7 @@
     </row>
     <row r="477" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>15</v>
@@ -20381,7 +20381,7 @@
         <v>0</v>
       </c>
       <c r="I477" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L477" s="2" t="s">
         <v>21</v>
@@ -20395,7 +20395,7 @@
     </row>
     <row r="478" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A478" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>15</v>
@@ -20419,7 +20419,7 @@
         <v>0</v>
       </c>
       <c r="I478" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J478" s="2" t="b">
         <v>1</v>
@@ -20428,10 +20428,10 @@
         <v>0</v>
       </c>
       <c r="L478" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M478" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N478" s="2" t="s">
         <v>19</v>
@@ -20439,10 +20439,10 @@
     </row>
     <row r="479" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C479" s="2">
         <v>10</v>
@@ -20463,7 +20463,7 @@
         <v>0</v>
       </c>
       <c r="I479" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N479" s="2" t="s">
         <v>19</v>
@@ -20471,10 +20471,10 @@
     </row>
     <row r="480" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A480" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C480" s="2">
         <v>10</v>
@@ -20495,7 +20495,7 @@
         <v>1</v>
       </c>
       <c r="I480" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N480" s="2" t="s">
         <v>19</v>
@@ -20503,7 +20503,7 @@
     </row>
     <row r="481" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>15</v>
@@ -20527,7 +20527,7 @@
         <v>0</v>
       </c>
       <c r="I481" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L481" s="2" t="s">
         <v>17</v>
@@ -20541,7 +20541,7 @@
     </row>
     <row r="482" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A482" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>15</v>
@@ -20565,7 +20565,7 @@
         <v>0</v>
       </c>
       <c r="I482" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L482" s="2" t="s">
         <v>17</v>
@@ -20579,7 +20579,7 @@
     </row>
     <row r="483" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>15</v>
@@ -20603,7 +20603,7 @@
         <v>0</v>
       </c>
       <c r="I483" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L483" s="2" t="s">
         <v>17</v>
@@ -20617,10 +20617,10 @@
     </row>
     <row r="484" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C484" s="2">
         <v>0</v>
@@ -20641,7 +20641,7 @@
         <v>0</v>
       </c>
       <c r="I484" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N484" s="2" t="s">
         <v>19</v>
@@ -20649,7 +20649,7 @@
     </row>
     <row r="485" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>15</v>
@@ -20673,7 +20673,7 @@
         <v>1</v>
       </c>
       <c r="I485" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L485" s="2" t="s">
         <v>17</v>
@@ -20687,7 +20687,7 @@
     </row>
     <row r="486" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A486" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>15</v>
@@ -20711,7 +20711,7 @@
         <v>1</v>
       </c>
       <c r="I486" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L486" s="2" t="s">
         <v>17</v>
@@ -20725,7 +20725,7 @@
     </row>
     <row r="487" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>15</v>
@@ -20749,7 +20749,7 @@
         <v>0</v>
       </c>
       <c r="I487" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L487" s="2" t="s">
         <v>30</v>
@@ -20763,7 +20763,7 @@
     </row>
     <row r="488" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>15</v>
@@ -20787,7 +20787,7 @@
         <v>0</v>
       </c>
       <c r="I488" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L488" s="2" t="s">
         <v>17</v>
@@ -20801,7 +20801,7 @@
     </row>
     <row r="489" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>15</v>
@@ -20825,13 +20825,13 @@
         <v>0</v>
       </c>
       <c r="I489" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L489" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M489" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N489" s="2" t="s">
         <v>19</v>
@@ -20839,7 +20839,7 @@
     </row>
     <row r="490" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A490" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>15</v>
@@ -20863,7 +20863,7 @@
         <v>1</v>
       </c>
       <c r="I490" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L490" s="2" t="s">
         <v>17</v>
@@ -20877,7 +20877,7 @@
     </row>
     <row r="491" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>15</v>
@@ -20901,7 +20901,7 @@
         <v>0</v>
       </c>
       <c r="I491" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L491" s="2" t="s">
         <v>86</v>
@@ -20915,10 +20915,10 @@
     </row>
     <row r="492" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A492" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C492" s="2">
         <v>10</v>
@@ -20939,7 +20939,7 @@
         <v>1</v>
       </c>
       <c r="I492" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N492" s="2" t="s">
         <v>33</v>
@@ -20947,7 +20947,7 @@
     </row>
     <row r="493" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>15</v>
@@ -20971,7 +20971,7 @@
         <v>1</v>
       </c>
       <c r="I493" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L493" s="2" t="s">
         <v>50</v>
@@ -20985,7 +20985,7 @@
     </row>
     <row r="494" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A494" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>15</v>
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="I494" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L494" s="2" t="s">
         <v>17</v>
@@ -21023,7 +21023,7 @@
     </row>
     <row r="495" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>15</v>
@@ -21047,7 +21047,7 @@
         <v>0</v>
       </c>
       <c r="I495" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L495" s="2" t="s">
         <v>17</v>
@@ -21061,7 +21061,7 @@
     </row>
     <row r="496" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>15</v>
@@ -21085,7 +21085,7 @@
         <v>0</v>
       </c>
       <c r="I496" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L496" s="2" t="s">
         <v>17</v>
@@ -21099,7 +21099,7 @@
     </row>
     <row r="497" spans="1:27" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>15</v>
@@ -21123,7 +21123,7 @@
         <v>0</v>
       </c>
       <c r="I497" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L497" s="2" t="s">
         <v>17</v>
@@ -21137,7 +21137,7 @@
     </row>
     <row r="498" spans="1:27" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>15</v>
@@ -21161,7 +21161,7 @@
         <v>1</v>
       </c>
       <c r="I498" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L498" s="2" t="s">
         <v>21</v>
@@ -21175,10 +21175,10 @@
     </row>
     <row r="499" spans="1:27" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C499" s="2">
         <v>10</v>
@@ -21199,7 +21199,7 @@
         <v>0</v>
       </c>
       <c r="I499" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N499" s="2" t="s">
         <v>52</v>
@@ -21207,31 +21207,31 @@
     </row>
     <row r="500" spans="1:27" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A500" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C500" s="2">
+        <v>1</v>
+      </c>
+      <c r="D500" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E500" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F500" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G500" s="2">
+        <v>0</v>
+      </c>
+      <c r="H500" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I500" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="B500" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C500" s="2">
-        <v>1</v>
-      </c>
-      <c r="D500" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E500" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F500" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G500" s="2">
-        <v>0</v>
-      </c>
-      <c r="H500" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I500" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="L500" s="2" t="s">
         <v>17</v>
@@ -21245,7 +21245,7 @@
     </row>
     <row r="501" spans="1:27" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>15</v>
@@ -21269,7 +21269,7 @@
         <v>0</v>
       </c>
       <c r="I501" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L501" s="2" t="s">
         <v>179</v>
@@ -21283,7 +21283,7 @@
     </row>
     <row r="502" spans="1:27" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A502" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>15</v>
@@ -21307,13 +21307,13 @@
         <v>1</v>
       </c>
       <c r="I502" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L502" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M502" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N502" s="2" t="s">
         <v>19</v>
@@ -21321,7 +21321,7 @@
     </row>
     <row r="503" spans="1:27" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>15</v>
@@ -21345,13 +21345,13 @@
         <v>1</v>
       </c>
       <c r="I503" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L503" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M503" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N503" s="2" t="s">
         <v>19</v>
@@ -21359,7 +21359,7 @@
     </row>
     <row r="504" spans="1:27" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A504" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>15</v>
@@ -21383,13 +21383,13 @@
         <v>1</v>
       </c>
       <c r="I504" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L504" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M504" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N504" s="2" t="s">
         <v>66</v>
@@ -21397,7 +21397,7 @@
     </row>
     <row r="505" spans="1:27" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>15</v>
@@ -21421,7 +21421,7 @@
         <v>0</v>
       </c>
       <c r="I505" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L505" s="2" t="s">
         <v>17</v>
@@ -21435,7 +21435,7 @@
     </row>
     <row r="506" spans="1:27" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A506" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>15</v>
@@ -21459,13 +21459,13 @@
         <v>1</v>
       </c>
       <c r="I506" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L506" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M506" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N506" s="2" t="s">
         <v>19</v>
@@ -21473,7 +21473,7 @@
     </row>
     <row r="507" spans="1:27" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>15</v>
@@ -21497,7 +21497,7 @@
         <v>0</v>
       </c>
       <c r="I507" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L507" s="2" t="s">
         <v>17</v>
@@ -21511,7 +21511,7 @@
     </row>
     <row r="508" spans="1:27" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A508" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B508" s="2" t="s">
         <v>15</v>
@@ -21535,13 +21535,13 @@
         <v>0</v>
       </c>
       <c r="I508" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L508" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M508" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N508" s="2" t="s">
         <v>66</v>
@@ -21549,7 +21549,7 @@
     </row>
     <row r="509" spans="1:27" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>15</v>
@@ -21573,7 +21573,7 @@
         <v>0</v>
       </c>
       <c r="I509" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L509" s="2" t="s">
         <v>17</v>
@@ -21587,7 +21587,7 @@
     </row>
     <row r="510" spans="1:27" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A510" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>15</v>
@@ -21611,7 +21611,7 @@
         <v>1</v>
       </c>
       <c r="I510" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L510" s="2" t="s">
         <v>17</v>
@@ -21638,10 +21638,10 @@
     </row>
     <row r="511" spans="1:27" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C511" s="2">
         <v>0</v>
@@ -21662,7 +21662,7 @@
         <v>0</v>
       </c>
       <c r="I511" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N511" s="2" t="s">
         <v>42</v>
@@ -21670,7 +21670,7 @@
     </row>
     <row r="512" spans="1:27" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A512" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>15</v>
@@ -21694,7 +21694,7 @@
         <v>0</v>
       </c>
       <c r="I512" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J512" s="2" t="s">
         <v>58</v>
@@ -21706,7 +21706,7 @@
         <v>26</v>
       </c>
       <c r="M512" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N512" s="2" t="s">
         <v>42</v>
@@ -21714,7 +21714,7 @@
     </row>
     <row r="513" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>15</v>
@@ -21738,7 +21738,7 @@
         <v>0</v>
       </c>
       <c r="I513" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L513" s="2" t="s">
         <v>17</v>
@@ -21752,7 +21752,7 @@
     </row>
     <row r="514" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A514" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>15</v>
@@ -21776,7 +21776,7 @@
         <v>0</v>
       </c>
       <c r="I514" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L514" s="2" t="s">
         <v>17</v>
@@ -21790,7 +21790,7 @@
     </row>
     <row r="515" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>15</v>
@@ -21814,7 +21814,7 @@
         <v>0</v>
       </c>
       <c r="I515" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L515" s="2" t="s">
         <v>17</v>
@@ -21828,7 +21828,7 @@
     </row>
     <row r="516" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A516" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>15</v>
@@ -21852,7 +21852,7 @@
         <v>0</v>
       </c>
       <c r="I516" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L516" s="2" t="s">
         <v>17</v>
@@ -21866,7 +21866,7 @@
     </row>
     <row r="517" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A517" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>15</v>
@@ -21890,7 +21890,7 @@
         <v>0</v>
       </c>
       <c r="I517" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L517" s="2" t="s">
         <v>17</v>
@@ -21904,7 +21904,7 @@
     </row>
     <row r="518" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A518" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>15</v>
@@ -21928,7 +21928,7 @@
         <v>1</v>
       </c>
       <c r="I518" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L518" s="2" t="s">
         <v>17</v>
@@ -21942,7 +21942,7 @@
     </row>
     <row r="519" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>15</v>
@@ -21966,7 +21966,7 @@
         <v>0</v>
       </c>
       <c r="I519" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L519" s="2" t="s">
         <v>17</v>
@@ -21980,7 +21980,7 @@
     </row>
     <row r="520" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A520" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>15</v>
@@ -22004,7 +22004,7 @@
         <v>0</v>
       </c>
       <c r="I520" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L520" s="2" t="s">
         <v>17</v>
@@ -22018,7 +22018,7 @@
     </row>
     <row r="521" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>15</v>
@@ -22042,13 +22042,13 @@
         <v>1</v>
       </c>
       <c r="I521" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L521" s="2" t="s">
         <v>189</v>
       </c>
       <c r="M521" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N521" s="2" t="s">
         <v>66</v>
@@ -22056,7 +22056,7 @@
     </row>
     <row r="522" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A522" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B522" s="2" t="s">
         <v>15</v>
@@ -22080,13 +22080,13 @@
         <v>0</v>
       </c>
       <c r="I522" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L522" s="2" t="s">
         <v>189</v>
       </c>
       <c r="M522" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N522" s="2" t="s">
         <v>66</v>
@@ -22094,7 +22094,7 @@
     </row>
     <row r="523" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B523" s="2" t="s">
         <v>15</v>
@@ -22118,13 +22118,13 @@
         <v>0</v>
       </c>
       <c r="I523" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L523" s="2" t="s">
         <v>189</v>
       </c>
       <c r="M523" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N523" s="2" t="s">
         <v>66</v>
@@ -22132,7 +22132,7 @@
     </row>
     <row r="524" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A524" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>15</v>
@@ -22156,7 +22156,7 @@
         <v>0</v>
       </c>
       <c r="I524" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L524" s="2" t="s">
         <v>86</v>
@@ -22170,7 +22170,7 @@
     </row>
     <row r="525" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A525" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B525" s="5" t="s">
         <v>15</v>
@@ -22194,7 +22194,7 @@
         <v>1</v>
       </c>
       <c r="I525" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J525" s="5"/>
       <c r="K525" s="5"/>
@@ -22210,7 +22210,7 @@
     </row>
     <row r="526" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A526" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B526" s="2" t="s">
         <v>15</v>
@@ -22234,7 +22234,7 @@
         <v>0</v>
       </c>
       <c r="I526" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L526" s="2" t="s">
         <v>17</v>
@@ -22248,7 +22248,7 @@
     </row>
     <row r="527" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B527" s="2" t="s">
         <v>15</v>
@@ -22272,13 +22272,13 @@
         <v>0</v>
       </c>
       <c r="I527" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L527" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M527" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N527" s="2" t="s">
         <v>66</v>
@@ -22286,7 +22286,7 @@
     </row>
     <row r="528" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A528" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>15</v>
@@ -22310,7 +22310,7 @@
         <v>1</v>
       </c>
       <c r="I528" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L528" s="2" t="s">
         <v>50</v>
@@ -22324,7 +22324,7 @@
     </row>
     <row r="529" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B529" s="2" t="s">
         <v>15</v>
@@ -22348,7 +22348,7 @@
         <v>0</v>
       </c>
       <c r="I529" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L529" s="2" t="s">
         <v>17</v>
@@ -22547,7 +22547,7 @@
     <hyperlink ref="A172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
     <hyperlink ref="A173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
     <hyperlink ref="A174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="A175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="A175" r:id="rId174" display="https://www.loveandlemons.com/" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
     <hyperlink ref="A176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
     <hyperlink ref="A177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
     <hyperlink ref="A178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
